--- a/03.历练/主要功法获取途径.xlsx
+++ b/03.历练/主要功法获取途径.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t xml:space="preserve">功法获取</t>
   </si>
@@ -307,6 +307,13 @@
       </rPr>
       <t xml:space="preserve">极天宫【何足道】</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">玄天真武两仪妙道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金顶中金屋顶房子参悟
+要求境界/机缘/悟性</t>
   </si>
   <si>
     <t xml:space="preserve">九天应元雷声普化玉书</t>
@@ -690,7 +697,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -813,6 +820,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -928,13 +939,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.46"/>
@@ -1365,81 +1376,92 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
+    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="33" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
+      <c r="B16" s="33" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>54</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>54</v>
+      <c r="B17" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
+    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="34" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="31" t="s">
+      <c r="B19" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>61</v>
+      <c r="B20" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/03.历练/主要功法获取途径.xlsx
+++ b/03.历练/主要功法获取途径.xlsx
@@ -313,7 +313,7 @@
   </si>
   <si>
     <t xml:space="preserve">金顶中金屋顶房子参悟
-要求境界/机缘/悟性</t>
+最低要求金丹期/机缘8/悟性8</t>
   </si>
   <si>
     <t xml:space="preserve">九天应元雷声普化玉书</t>
@@ -942,10 +942,10 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.46"/>
